--- a/lci-Salar-de-Atacama.xlsx
+++ b/lci-Salar-de-Atacama.xlsx
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0.05351237002799088</v>
+        <v>-0.04594999556340697</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.02474408924811848</v>
+        <v>0.02474408924811849</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -932,7 +932,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.02474408924811848</v>
+        <v>0.0003711613387217777</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -1081,7 +1081,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>0.9981800711782234</v>
+        <v>0.9981800711782233</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>0.3972321038820799</v>
+        <v>0.3972321038820805</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>41</v>
       </c>
       <c r="B61">
-        <v>0.523321475341504</v>
+        <v>0.5233214753415033</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="B62">
-        <v>0.145990618767077</v>
+        <v>0.1459906187670768</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>42</v>
       </c>
       <c r="B63">
-        <v>0.07944642077641598</v>
+        <v>0.0794464207764161</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
@@ -1660,7 +1660,7 @@
         <v>37</v>
       </c>
       <c r="B102">
-        <v>15.18147535840801</v>
+        <v>15.18147535840802</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>22</v>
       </c>
       <c r="B103">
-        <v>0.01613730005390876</v>
+        <v>0.01613730005390877</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -1694,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="B104">
-        <v>-0.01418147535840801</v>
+        <v>-0.01418147535840802</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>40</v>
       </c>
       <c r="B116">
-        <v>17.1956719242349</v>
+        <v>17.19567192423488</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="B117">
-        <v>0.01827831030376564</v>
+        <v>0.01827831030376561</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -1843,7 +1843,7 @@
         <v>49</v>
       </c>
       <c r="B118">
-        <v>-0.008966856465224087</v>
+        <v>-0.008966856465224082</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>36</v>
       </c>
       <c r="B132">
-        <v>-0.05263157894736843</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>0.8460236886632826</v>
+        <v>0.8460236886632825</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -2686,7 +2686,7 @@
         <v>55</v>
       </c>
       <c r="B199">
-        <v>0.17145714285714</v>
+        <v>0.1714571428571405</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
@@ -2703,7 +2703,7 @@
         <v>56</v>
       </c>
       <c r="B200">
-        <v>4.88466197263744E-10</v>
+        <v>1.688525126343811E-10</v>
       </c>
       <c r="D200" t="s">
         <v>57</v>
@@ -2720,7 +2720,7 @@
         <v>59</v>
       </c>
       <c r="B201">
-        <v>1.22116549315936E-11</v>
+        <v>4.221312815859528E-12</v>
       </c>
       <c r="D201" t="s">
         <v>60</v>
@@ -2737,7 +2737,7 @@
         <v>61</v>
       </c>
       <c r="B202">
-        <v>1.22116549315936E-11</v>
+        <v>4.221312815859528E-12</v>
       </c>
       <c r="D202" t="s">
         <v>60</v>
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>6.67590012292723</v>
+        <v>2.307718561011888</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>62</v>
       </c>
       <c r="B205">
-        <v>0.0002613681637914109</v>
+        <v>9.034948871801887E-05</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="B206">
-        <v>0.01822457312507966</v>
+        <v>0.01809927528554056</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
@@ -2839,7 +2839,7 @@
         <v>64</v>
       </c>
       <c r="B208">
-        <v>0.01201662022126901</v>
+        <v>0.0041538934098214</v>
       </c>
       <c r="C208" t="s">
         <v>31</v>
@@ -2856,7 +2856,7 @@
         <v>65</v>
       </c>
       <c r="B209">
-        <v>-6.572524163197338</v>
+        <v>-2.271983661352173</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -2873,7 +2873,7 @@
         <v>49</v>
       </c>
       <c r="B210">
-        <v>-0.006675900122927229</v>
+        <v>-0.002307718561011888</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
